--- a/comparaciones.xlsx
+++ b/comparaciones.xlsx
@@ -14,20 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Algoritmo - InsertionSort</t>
-  </si>
-  <si>
-    <t>Complejidad = O(n+k) - No comparativo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="21">
   <si>
     <t>Número de datos</t>
   </si>
   <si>
-    <t>Tiempo en Minutos</t>
-  </si>
-  <si>
     <t>Millones</t>
   </si>
   <si>
@@ -41,14 +32,343 @@
   </si>
   <si>
     <t>Delta Tiempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complejidad = </t>
+  </si>
+  <si>
+    <t>Complejidad =</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Algoritmo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">InsertionSort </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO HILOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Algoritmo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NO HILOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Algoritmo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>heapSort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NO HILOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Algoritmo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quickSort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NO HILOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Algoritmo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coutingSort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NO HILOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Algoritmo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">radixSort </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO HILOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Algoritmo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">InsertionSort </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HILOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Algoritmo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  HILOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Algoritmo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>heapSort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HILOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Algoritmo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quickSort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HILOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Algoritmo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coutingSort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HILOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Algoritmo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>radixSort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HILOS</t>
+    </r>
+  </si>
+  <si>
+    <t>Tiempo en segundos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,9 +423,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -114,11 +440,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,76 +755,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -506,17 +871,31 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -524,21 +903,948 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="G9" s="3">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15.46</v>
+      </c>
+      <c r="C15" s="3">
+        <v>16.04</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>29.82</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30.99</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>67.010000000000005</v>
+      </c>
+      <c r="C17" s="3">
+        <v>69.680000000000007</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>138.72999999999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>144.08000000000001</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>291.63</v>
+      </c>
+      <c r="C19" s="3">
+        <v>302.68</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="3">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3">
+        <v>13.29</v>
+      </c>
+      <c r="C25" s="3">
+        <v>13.94</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>22.24</v>
+      </c>
+      <c r="C26" s="1">
+        <v>23.25</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>59.58</v>
+      </c>
+      <c r="C27" s="3">
+        <v>62.21</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>133.97999999999999</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3">
+        <v>278.08</v>
+      </c>
+      <c r="C29" s="3">
+        <v>289.27</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="G29" s="3">
+        <v>20</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3">
+        <v>9.11</v>
+      </c>
+      <c r="C35" s="3">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
+        <v>17.37</v>
+      </c>
+      <c r="C36" s="1">
+        <v>18.45</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>5</v>
+      </c>
+      <c r="B37" s="6">
+        <v>55.61</v>
+      </c>
+      <c r="C37" s="7">
+        <v>58.22</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="G37" s="3">
+        <v>5</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1">
+        <v>147.87</v>
+      </c>
+      <c r="C38" s="1">
+        <v>153.26</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="G38" s="1">
+        <v>10</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>20</v>
+      </c>
+      <c r="B39" s="3">
+        <v>601.77</v>
+      </c>
+      <c r="C39" s="3">
+        <v>612.54999999999995</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="G39" s="3">
+        <v>20</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="G43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="G47" s="3">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="G48" s="1">
+        <v>10</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>20</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="G49" s="3">
+        <v>20</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="G53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="G56" s="1">
+        <v>2</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>5</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="G57" s="3">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="G58" s="1">
+        <v>10</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>20</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="G59" s="3">
+        <v>20</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="36">
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="H43:K43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/comparaciones.xlsx
+++ b/comparaciones.xlsx
@@ -434,17 +434,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,63 +757,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -928,56 +928,56 @@
       <c r="K9" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="H13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1112,56 +1112,56 @@
       <c r="K19" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="G21" s="4" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="G21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="G22" s="4" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="G22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="B23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
       <c r="G23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="H23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1296,56 +1296,56 @@
       <c r="K29" s="3"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="G31" s="4" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="G31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="G32" s="4" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="G32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="B33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
       <c r="G33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="H33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1423,10 +1423,10 @@
       <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>55.61</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="5">
         <v>58.22</v>
       </c>
       <c r="D37" s="3"/>
@@ -1480,56 +1480,56 @@
       <c r="K39" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="G41" s="4" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="G41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="G42" s="4" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="G42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="B43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
       <c r="G43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="H43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1567,8 +1567,12 @@
       <c r="A45" s="3">
         <v>1</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="B45" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1.03</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="G45" s="3">
@@ -1644,56 +1648,56 @@
       <c r="K49" s="3"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="G51" s="4" t="s">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="G51" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="G52" s="4" t="s">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="G52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="B53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
       <c r="G53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+      <c r="H53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1809,6 +1813,34 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="A41:E41"/>
@@ -1817,34 +1849,6 @@
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="H43:K43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/comparaciones.xlsx
+++ b/comparaciones.xlsx
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,10 +1568,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="3">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="C45" s="3">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1587,8 +1587,12 @@
       <c r="A46" s="1">
         <v>2</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2.59</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="G46" s="1">
@@ -1603,8 +1607,12 @@
       <c r="A47" s="3">
         <v>5</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="B47" s="3">
+        <v>3.97</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6.61</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="G47" s="3">
@@ -1619,8 +1627,12 @@
       <c r="A48" s="1">
         <v>10</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="B48" s="1">
+        <v>7.94</v>
+      </c>
+      <c r="C48" s="1">
+        <v>13.41</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="G48" s="1">
@@ -1635,8 +1647,12 @@
       <c r="A49" s="3">
         <v>20</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="B49" s="3">
+        <v>16.07</v>
+      </c>
+      <c r="C49" s="3">
+        <v>27.21</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="G49" s="3">
@@ -1813,6 +1829,34 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="G31:K31"/>
     <mergeCell ref="G51:K51"/>
     <mergeCell ref="G52:K52"/>
     <mergeCell ref="H53:K53"/>
@@ -1821,34 +1865,6 @@
     <mergeCell ref="G41:K41"/>
     <mergeCell ref="G42:K42"/>
     <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/comparaciones.xlsx
+++ b/comparaciones.xlsx
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,8 +1751,12 @@
       <c r="A55" s="3">
         <v>1</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="B55" s="3">
+        <v>2.74</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3.22</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="G55" s="3">
@@ -1767,8 +1771,12 @@
       <c r="A56" s="1">
         <v>2</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="B56" s="1">
+        <v>5.61</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6.51</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="G56" s="1">
@@ -1783,8 +1791,12 @@
       <c r="A57" s="3">
         <v>5</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="B57" s="3">
+        <v>14.57</v>
+      </c>
+      <c r="C57" s="3">
+        <v>16.96</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="G57" s="3">
@@ -1799,8 +1811,12 @@
       <c r="A58" s="1">
         <v>10</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="B58" s="1">
+        <v>28.76</v>
+      </c>
+      <c r="C58" s="1">
+        <v>33.49</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="G58" s="1">
@@ -1815,8 +1831,12 @@
       <c r="A59" s="3">
         <v>20</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="B59" s="3">
+        <v>59.82</v>
+      </c>
+      <c r="C59" s="3">
+        <v>69.510000000000005</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="G59" s="3">
@@ -1829,6 +1849,34 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="A41:E41"/>
@@ -1837,34 +1885,6 @@
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="H43:K43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/comparaciones.xlsx
+++ b/comparaciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="25">
   <si>
     <t>Número de datos</t>
   </si>
@@ -34,12 +34,6 @@
     <t>Delta Tiempo</t>
   </si>
   <si>
-    <t xml:space="preserve">Complejidad = </t>
-  </si>
-  <si>
-    <t>Complejidad =</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Algoritmo - </t>
     </r>
@@ -353,13 +347,54 @@
   </si>
   <si>
     <t>Tiempo en segundos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se corrio el algoritmo durante </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> horas sin resultados terminados.</t>
+    </r>
+  </si>
+  <si>
+    <t>Complejidad = O(n^2)</t>
+  </si>
+  <si>
+    <t>Complejidad = O(n log n)</t>
+  </si>
+  <si>
+    <t>Complejidad = O(n+k)</t>
+  </si>
+  <si>
+    <t>Complejidad = O(nk)</t>
+  </si>
+  <si>
+    <t>no se realizo el proceso con hilos ya que se evidencia que toma mas tiempo en este tipo de procesos de ordenamiento.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,8 +410,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +437,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -419,11 +467,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -444,6 +572,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -757,22 +918,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="G1" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -781,14 +942,14 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -800,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -809,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -847,96 +1008,100 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="H5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="G8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>20</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="G9" s="3">
         <v>20</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -945,14 +1110,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -964,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -973,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1026,8 +1191,12 @@
       <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3">
+        <v>18.93</v>
+      </c>
+      <c r="I15" s="3">
+        <v>19.809999999999999</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
@@ -1046,8 +1215,12 @@
       <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="1">
+        <v>38.75</v>
+      </c>
+      <c r="I16" s="1">
+        <v>40.590000000000003</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
@@ -1066,8 +1239,12 @@
       <c r="G17" s="3">
         <v>5</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="3">
+        <v>108.78</v>
+      </c>
+      <c r="I17" s="3">
+        <v>113.3</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
@@ -1086,8 +1263,12 @@
       <c r="G18" s="1">
         <v>10</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="1">
+        <v>218.34</v>
+      </c>
+      <c r="I18" s="1">
+        <v>227.46</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
@@ -1106,21 +1287,25 @@
       <c r="G19" s="3">
         <v>20</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="3">
+        <v>445.91</v>
+      </c>
+      <c r="I19" s="3">
+        <v>487.84</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1129,14 +1314,14 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="G22" s="6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1148,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1157,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1210,8 +1395,12 @@
       <c r="G25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="H25" s="3">
+        <v>21.47</v>
+      </c>
+      <c r="I25" s="3">
+        <v>21.99</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
@@ -1230,8 +1419,12 @@
       <c r="G26" s="1">
         <v>2</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="1">
+        <v>45.51</v>
+      </c>
+      <c r="I26" s="1">
+        <v>46.51</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
@@ -1250,8 +1443,12 @@
       <c r="G27" s="3">
         <v>5</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="H27" s="3">
+        <v>110.55</v>
+      </c>
+      <c r="I27" s="3">
+        <v>113.15</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
@@ -1297,14 +1494,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="G31" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -1313,14 +1510,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -1332,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1341,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -1481,14 +1678,14 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -1497,14 +1694,14 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="G42" s="6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -1516,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1525,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -1665,14 +1862,14 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="G51" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -1681,14 +1878,14 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="G52" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -1700,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -1709,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -1848,7 +2045,37 @@
       <c r="K59" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="H5:K7"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="G31:K31"/>
     <mergeCell ref="G51:K51"/>
     <mergeCell ref="G52:K52"/>
     <mergeCell ref="H53:K53"/>
@@ -1857,34 +2084,6 @@
     <mergeCell ref="G41:K41"/>
     <mergeCell ref="G42:K42"/>
     <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/comparaciones.xlsx
+++ b/comparaciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
   <si>
     <t>Número de datos</t>
   </si>
@@ -388,6 +388,25 @@
   </si>
   <si>
     <t>no se realizo el proceso con hilos ya que se evidencia que toma mas tiempo en este tipo de procesos de ordenamiento.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se corrio con 1 millon de datos y genero el siguiente error: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RecursionError: maximum recursion depth exceeded in comparison</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -568,13 +587,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,9 +615,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -918,63 +937,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1012,30 +1031,30 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -1048,101 +1067,101 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="G8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>20</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="G9" s="3">
         <v>20</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="6" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="6" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1297,56 +1316,56 @@
       <c r="K19" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="G21" s="6" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="G21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="G22" s="6" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="G22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="G23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1467,8 +1486,12 @@
       <c r="G28" s="1">
         <v>10</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="H28" s="1">
+        <v>228.25</v>
+      </c>
+      <c r="I28" s="1">
+        <v>233.38</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
@@ -1487,62 +1510,66 @@
       <c r="G29" s="3">
         <v>20</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="H29" s="3">
+        <v>480.89</v>
+      </c>
+      <c r="I29" s="3">
+        <v>491.45</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="G31" s="6" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="G31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="G32" s="6" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="G32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
       <c r="G33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1576,25 +1603,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>1</v>
       </c>
       <c r="B35" s="3">
-        <v>9.11</v>
+        <v>7.97</v>
       </c>
       <c r="C35" s="3">
-        <v>9.7899999999999991</v>
+        <v>8.42</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="G35" s="3">
         <v>1</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="H35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1611,10 +1640,10 @@
       <c r="G36" s="1">
         <v>2</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
@@ -1631,10 +1660,10 @@
       <c r="G37" s="3">
         <v>5</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1651,10 +1680,10 @@
       <c r="G38" s="1">
         <v>10</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
@@ -1671,62 +1700,62 @@
       <c r="G39" s="3">
         <v>20</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="G41" s="6" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="G41" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="G42" s="6" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="G42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
       <c r="G43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1775,8 +1804,12 @@
       <c r="G45" s="3">
         <v>1</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="H45" s="3">
+        <v>46.84</v>
+      </c>
+      <c r="I45" s="3">
+        <v>47.73</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
@@ -1795,8 +1828,12 @@
       <c r="G46" s="1">
         <v>2</v>
       </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="H46" s="1">
+        <v>90.89</v>
+      </c>
+      <c r="I46" s="1">
+        <v>92.76</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
@@ -1815,8 +1852,12 @@
       <c r="G47" s="3">
         <v>5</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="H47" s="3">
+        <v>226.51</v>
+      </c>
+      <c r="I47" s="3">
+        <v>231.1</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
@@ -1835,8 +1876,12 @@
       <c r="G48" s="1">
         <v>10</v>
       </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="H48" s="1">
+        <v>454.35</v>
+      </c>
+      <c r="I48" s="1">
+        <v>463.26</v>
+      </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
@@ -1855,62 +1900,71 @@
       <c r="G49" s="3">
         <v>20</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="H49" s="3">
+        <v>908.45</v>
+      </c>
+      <c r="I49" s="3">
+        <v>926.79</v>
+      </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="G51" s="6" t="s">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="G51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="G52" s="6" t="s">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="G52" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
     </row>
     <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
       <c r="G53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1944,7 +1998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -1959,8 +2013,12 @@
       <c r="G55" s="3">
         <v>1</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="H55" s="3">
+        <v>12.23</v>
+      </c>
+      <c r="I55" s="3">
+        <v>11.08</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
@@ -1979,8 +2037,12 @@
       <c r="G56" s="1">
         <v>2</v>
       </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="H56" s="1">
+        <v>20.53</v>
+      </c>
+      <c r="I56" s="1">
+        <v>22.27</v>
+      </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
@@ -1999,8 +2061,12 @@
       <c r="G57" s="3">
         <v>5</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="H57" s="3">
+        <v>51.41</v>
+      </c>
+      <c r="I57" s="3">
+        <v>55.76</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
@@ -2019,8 +2085,12 @@
       <c r="G58" s="1">
         <v>10</v>
       </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="H58" s="1">
+        <v>102.37</v>
+      </c>
+      <c r="I58" s="1">
+        <v>110.91</v>
+      </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
@@ -2039,13 +2109,48 @@
       <c r="G59" s="3">
         <v>20</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="H59" s="3">
+        <v>204.83</v>
+      </c>
+      <c r="I59" s="3">
+        <v>221.86</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H35:K38"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="H5:K7"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B5:E6"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="A41:E41"/>
@@ -2054,36 +2159,6 @@
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="H5:K7"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="H43:K43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
